--- a/LPQA-Root Cause Analysis Project/8136 CS2 DataSet L Siddhesh Otari-8934061.xlsx
+++ b/LPQA-Root Cause Analysis Project/8136 CS2 DataSet L Siddhesh Otari-8934061.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\random files\Conestoga College class assgn\Sem 2\Descriptive Analysis\Case Study 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\random files\Projects\LPQA-Root Cause Analysis Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADAF510-A2B0-469A-8351-C770DC173535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE08235-CD08-40D0-A2F4-5DF61FA30331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F15397FA-DF51-4214-B27E-DFB0A133EBA7}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{F15397FA-DF51-4214-B27E-DFB0A133EBA7}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMeFirst" sheetId="1" r:id="rId1"/>
@@ -19992,7 +19992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6783AE-F49B-46DF-B988-E7F0F8CC81AF}">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -20564,7 +20564,7 @@
     <hyperlink ref="B69" location="'Why#5 Visualization'!A1" display="Why#5 Visualization" xr:uid="{C0D4C265-1B2E-49B7-B622-88B03AEF9246}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -20716,7 +20716,8 @@
     <hyperlink ref="A2:B2" location="ReadMeFirst!A1" display="Return to ReadMeFirst" xr:uid="{06D1E389-0F46-4295-A527-13EB566923C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -20898,7 +20899,8 @@
     <hyperlink ref="A2:B2" location="ReadMeFirst!A1" display="Return to ReadMeFirst" xr:uid="{0561B253-2628-4C68-ABC0-3456BE870276}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -22570,7 +22572,7 @@
     <hyperlink ref="A2:B2" location="'Other Lists'!A1" display="Return to ReadMeFirst" xr:uid="{70189AE1-81B9-4D92-90AA-B38279F93B05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -22578,7 +22580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{647A270B-5908-41EF-A718-B4209E4CB9D6}">
   <dimension ref="A1:Y99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -29253,7 +29255,7 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -33550,7 +33552,7 @@
     <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -49119,7 +49121,7 @@
     <hyperlink ref="A2:B2" location="ReadMeFirst!A1" display="Return to ReadMeFirst" xr:uid="{5E086D75-19F0-4D49-8569-CBEF0D9B86A4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
     <tablePart r:id="rId3"/>
@@ -49244,8 +49246,9 @@
     <hyperlink ref="A2:B2" location="ReadMeFirst!A1" display="Return to ReadMeFirst" xr:uid="{F2139889-AE3E-4F0B-9722-B73C8CE953E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -49468,7 +49471,8 @@
     <hyperlink ref="A2:B2" location="ReadMeFirst!A1" display="Return to ReadMeFirst" xr:uid="{5412E73A-2A71-4AFA-BE09-668AC35870C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -49686,7 +49690,8 @@
     <hyperlink ref="A2:B2" location="ReadMeFirst!A1" display="Return to ReadMeFirst" xr:uid="{347A0745-9C08-4A89-9117-94686EDE4F51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -49837,6 +49842,7 @@
     <hyperlink ref="A2:B2" location="ReadMeFirst!A1" display="Return to ReadMeFirst" xr:uid="{CEBBDEEB-4B98-435A-9B96-4924C826F5E0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="landscape" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>